--- a/02-软件设计/方案验证/_MFC_File/FileDataBase/1521611168303.xlsx
+++ b/02-软件设计/方案验证/_MFC_File/FileDataBase/1521611168303.xlsx
@@ -275,13 +275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>28372</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>287775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>338235</xdr:rowOff>
@@ -619,133 +619,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
